--- a/rtss-pre1917/src/main/resources/csk-ezhegodnik-rossii/year-volumes/1915.xlsx
+++ b/rtss-pre1917/src/main/resources/csk-ezhegodnik-rossii/year-volumes/1915.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\github\RTSS\rtss-pre1917\src\main\resources\csk-ezhegodnik-rossii\year-volumes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73B2439A-2DDD-4078-8AED-14E503AF4637}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8633FBE0-F810-4612-AD55-9A003EBBC799}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="89910" yWindow="240" windowWidth="24855" windowHeight="22575" activeTab="1" xr2:uid="{AE443646-E8D1-4FCB-84A2-F0153A34DA1E}"/>
+    <workbookView xWindow="89130" yWindow="930" windowWidth="24855" windowHeight="22575" xr2:uid="{AE443646-E8D1-4FCB-84A2-F0153A34DA1E}"/>
   </bookViews>
   <sheets>
     <sheet name="note" sheetId="1" r:id="rId1"/>
@@ -39,9 +39,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="127">
   <si>
-    <t>стр. 50-80</t>
-  </si>
-  <si>
     <t>губ</t>
   </si>
   <si>
@@ -418,6 +415,9 @@
   </si>
   <si>
     <t>-</t>
+  </si>
+  <si>
+    <t>стр. I/33-57</t>
   </si>
 </sst>
 </file>
@@ -796,25 +796,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{651B1421-8802-4AD1-85C6-4C81BDB0FEBC}">
   <dimension ref="A1:A4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>126</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
   </sheetData>
@@ -826,8 +826,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72E77F90-5D71-4CEC-BEEE-B421AD8A8EDB}">
   <dimension ref="A1:S110"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="C72" sqref="C72"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -845,59 +846,59 @@
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>7</v>
-      </c>
       <c r="E1" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F1" s="1"/>
       <c r="G1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="1" t="s">
-        <v>4</v>
-      </c>
       <c r="J1" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="K1" s="1"/>
       <c r="L1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="M1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="N1" s="1" t="s">
-        <v>10</v>
-      </c>
       <c r="O1" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="Q1" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="Q1" s="3" t="s">
+      <c r="R1" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="R1" s="3" t="s">
+      <c r="S1" s="3" t="s">
         <v>102</v>
-      </c>
-      <c r="S1" s="3" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B2" s="2">
         <v>211.5</v>
@@ -955,7 +956,7 @@
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B3" s="2">
         <v>629</v>
@@ -1013,7 +1014,7 @@
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B4" s="2">
         <v>1157.3</v>
@@ -1071,7 +1072,7 @@
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B5" s="2">
         <v>893.6</v>
@@ -1127,7 +1128,7 @@
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B6" s="2">
         <v>818.7</v>
@@ -1183,7 +1184,7 @@
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B7" s="2">
         <v>918.2</v>
@@ -1241,7 +1242,7 @@
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B8" s="2">
         <v>808.4</v>
@@ -1299,7 +1300,7 @@
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B9" s="2">
         <v>1937.3</v>
@@ -1357,7 +1358,7 @@
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B10" s="2">
         <v>1734.8</v>
@@ -1415,7 +1416,7 @@
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B11" s="2">
         <v>1873.8</v>
@@ -1473,7 +1474,7 @@
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B12" s="2">
         <v>864.6</v>
@@ -1531,7 +1532,7 @@
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B13" s="2">
         <v>1813.4</v>
@@ -1589,7 +1590,7 @@
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B14" s="2">
         <v>1521.2</v>
@@ -1647,7 +1648,7 @@
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B15" s="2">
         <v>1299.8</v>
@@ -1705,7 +1706,7 @@
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B16" s="2">
         <v>618.9</v>
@@ -1763,7 +1764,7 @@
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B17" s="2">
         <v>2002.5</v>
@@ -1821,7 +1822,7 @@
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B18" s="2">
         <v>815</v>
@@ -1879,7 +1880,7 @@
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B19" s="2">
         <v>789.5</v>
@@ -1937,7 +1938,7 @@
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B20" s="2">
         <v>283.3</v>
@@ -1995,7 +1996,7 @@
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B21" s="2">
         <v>1483</v>
@@ -2053,7 +2054,7 @@
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B22" s="2">
         <v>518.79999999999995</v>
@@ -2111,7 +2112,7 @@
     </row>
     <row r="23" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B23" s="2">
         <v>1383.3</v>
@@ -2169,7 +2170,7 @@
     </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B24" s="2">
         <v>1113.7</v>
@@ -2227,7 +2228,7 @@
     </row>
     <row r="25" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B25" s="2">
         <v>794.3</v>
@@ -2285,7 +2286,7 @@
     </row>
     <row r="26" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B26" s="2">
         <v>909.7</v>
@@ -2343,7 +2344,7 @@
     </row>
     <row r="27" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B27" s="2">
         <v>778.5</v>
@@ -2401,7 +2402,7 @@
     </row>
     <row r="28" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B28" s="2">
         <v>209.7</v>
@@ -2459,7 +2460,7 @@
     </row>
     <row r="29" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B29" s="2">
         <v>983.4</v>
@@ -2517,7 +2518,7 @@
     </row>
     <row r="30" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B30" s="2">
         <v>1227.2</v>
@@ -2575,7 +2576,7 @@
     </row>
     <row r="31" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B31" s="2">
         <v>843.6</v>
@@ -2633,7 +2634,7 @@
     </row>
     <row r="32" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B32" s="2">
         <v>1854.8</v>
@@ -2691,7 +2692,7 @@
     </row>
     <row r="33" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B33" s="2">
         <v>1882.9</v>
@@ -2749,7 +2750,7 @@
     </row>
     <row r="34" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B34" s="2">
         <v>1731.7</v>
@@ -2807,7 +2808,7 @@
     </row>
     <row r="35" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B35" s="2">
         <v>653.5</v>
@@ -2865,7 +2866,7 @@
     </row>
     <row r="36" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B36" s="2">
         <v>1263</v>
@@ -2923,7 +2924,7 @@
     </row>
     <row r="37" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B37" s="2">
         <v>1817.5</v>
@@ -2981,7 +2982,7 @@
     </row>
     <row r="38" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B38" s="2">
         <v>392.2</v>
@@ -3039,7 +3040,7 @@
     </row>
     <row r="39" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B39" s="2">
         <v>1410.7</v>
@@ -3097,7 +3098,7 @@
     </row>
     <row r="40" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B40" s="2">
         <v>947.6</v>
@@ -3155,7 +3156,7 @@
     </row>
     <row r="41" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B41" s="2">
         <v>965.9</v>
@@ -3213,7 +3214,7 @@
     </row>
     <row r="42" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B42" s="2">
         <v>829.4</v>
@@ -3271,7 +3272,7 @@
     </row>
     <row r="43" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A43" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B43" s="2">
         <v>1595.2</v>
@@ -3329,7 +3330,7 @@
     </row>
     <row r="44" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A44" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B44" s="2">
         <v>1039.0999999999999</v>
@@ -3387,7 +3388,7 @@
     </row>
     <row r="45" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A45" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B45" s="2">
         <v>849.2</v>
@@ -3445,7 +3446,7 @@
     </row>
     <row r="46" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A46" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B46" s="2">
         <v>1471.8</v>
@@ -3503,7 +3504,7 @@
     </row>
     <row r="47" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A47" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B47" s="2">
         <v>1463.1</v>
@@ -3561,7 +3562,7 @@
     </row>
     <row r="48" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A48" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B48" s="2">
         <v>1342.7</v>
@@ -3619,7 +3620,7 @@
     </row>
     <row r="49" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A49" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B49" s="2">
         <v>474.4</v>
@@ -3677,7 +3678,7 @@
     </row>
     <row r="50" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A50" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B50" s="2">
         <v>1390.4</v>
@@ -3735,7 +3736,7 @@
     </row>
     <row r="51" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A51" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B51" s="2">
         <v>196.1</v>
@@ -3793,7 +3794,7 @@
     </row>
     <row r="52" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A52" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B52" s="2">
         <v>531.70000000000005</v>
@@ -3851,7 +3852,7 @@
     </row>
     <row r="53" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A53" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B53" s="2">
         <v>55338.9</v>
@@ -3909,7 +3910,7 @@
     </row>
     <row r="54" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A54" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B54" s="2">
         <v>4623</v>
@@ -3967,7 +3968,7 @@
     </row>
     <row r="55" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A55" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B55" s="2">
         <v>825.4</v>
@@ -4025,7 +4026,7 @@
     </row>
     <row r="56" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A56" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B56" s="2">
         <v>565.79999999999995</v>
@@ -4083,7 +4084,7 @@
     </row>
     <row r="57" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A57" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B57" s="2">
         <v>467.3</v>
@@ -4141,7 +4142,7 @@
     </row>
     <row r="58" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A58" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B58" s="2">
         <v>362.9</v>
@@ -4199,7 +4200,7 @@
     </row>
     <row r="59" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A59" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B59" s="2">
         <v>629</v>
@@ -4257,7 +4258,7 @@
     </row>
     <row r="60" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A60" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B60" s="2">
         <v>619.1</v>
@@ -4315,7 +4316,7 @@
     </row>
     <row r="61" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A61" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B61" s="2">
         <v>326.8</v>
@@ -4373,7 +4374,7 @@
     </row>
     <row r="62" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A62" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B62" s="2">
         <v>519.20000000000005</v>
@@ -4431,7 +4432,7 @@
     </row>
     <row r="63" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A63" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B63" s="2">
         <v>307.5</v>
@@ -4489,16 +4490,16 @@
     </row>
     <row r="64" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A64" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B64" s="6" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C64" s="6" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D64" s="6" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E64" s="4" t="e">
         <f t="shared" si="0"/>
@@ -4506,13 +4507,13 @@
       </c>
       <c r="F64" s="2"/>
       <c r="G64" s="6" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="H64" s="6" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="I64" s="6" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="J64" s="4" t="e">
         <f t="shared" si="1"/>
@@ -4520,13 +4521,13 @@
       </c>
       <c r="K64" s="2"/>
       <c r="L64" s="6" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="M64" s="6" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="N64" s="6" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="O64" s="4" t="e">
         <f t="shared" si="2"/>
@@ -4547,7 +4548,7 @@
     </row>
     <row r="65" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A65" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B65" s="2">
         <v>5837.7</v>
@@ -4605,7 +4606,7 @@
     </row>
     <row r="66" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A66" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B66" s="2">
         <v>441</v>
@@ -4663,7 +4664,7 @@
     </row>
     <row r="67" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A67" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B67" s="2">
         <v>65.599999999999994</v>
@@ -4721,7 +4722,7 @@
     </row>
     <row r="68" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A68" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B68" s="2">
         <v>325.5</v>
@@ -4779,7 +4780,7 @@
     </row>
     <row r="69" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A69" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B69" s="2">
         <v>530.20000000000005</v>
@@ -4837,7 +4838,7 @@
     </row>
     <row r="70" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A70" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B70" s="2">
         <v>50.7</v>
@@ -4895,7 +4896,7 @@
     </row>
     <row r="71" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A71" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B71" s="2">
         <v>188.2</v>
@@ -4953,7 +4954,7 @@
     </row>
     <row r="72" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A72" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B72" s="2">
         <v>1419.9</v>
@@ -5011,7 +5012,7 @@
     </row>
     <row r="73" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A73" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B73" s="2">
         <v>506.3</v>
@@ -5069,7 +5070,7 @@
     </row>
     <row r="74" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A74" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B74" s="2">
         <v>639.6</v>
@@ -5127,7 +5128,7 @@
     </row>
     <row r="75" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A75" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B75" s="2">
         <v>63.2</v>
@@ -5185,7 +5186,7 @@
     </row>
     <row r="76" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A76" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B76" s="2">
         <v>553.9</v>
@@ -5243,7 +5244,7 @@
     </row>
     <row r="77" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A77" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B77" s="2">
         <v>513.9</v>
@@ -5301,7 +5302,7 @@
     </row>
     <row r="78" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A78" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B78" s="2">
         <v>52.9</v>
@@ -5359,7 +5360,7 @@
     </row>
     <row r="79" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A79" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B79" s="2">
         <v>486.8</v>
@@ -5417,7 +5418,7 @@
     </row>
     <row r="80" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A80" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B80" s="2">
         <v>4651.7</v>
@@ -5475,7 +5476,7 @@
     </row>
     <row r="81" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A81" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B81" s="2">
         <v>100.5</v>
@@ -5533,7 +5534,7 @@
     </row>
     <row r="82" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A82" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B82" s="2">
         <v>511.2</v>
@@ -5591,7 +5592,7 @@
     </row>
     <row r="83" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A83" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B83" s="2">
         <v>422.7</v>
@@ -5649,7 +5650,7 @@
     </row>
     <row r="84" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A84" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B84" s="2">
         <v>349.4</v>
@@ -5707,7 +5708,7 @@
     </row>
     <row r="85" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A85" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B85" s="2">
         <v>19.899999999999999</v>
@@ -5765,7 +5766,7 @@
     </row>
     <row r="86" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A86" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B86" s="2">
         <v>238.5</v>
@@ -5823,7 +5824,7 @@
     </row>
     <row r="87" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A87" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B87" s="2">
         <v>21.5</v>
@@ -5881,7 +5882,7 @@
     </row>
     <row r="88" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A88" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B88" s="2">
         <v>964.7</v>
@@ -5939,7 +5940,7 @@
     </row>
     <row r="89" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A89" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B89" s="2">
         <v>1861.6</v>
@@ -5997,7 +5998,7 @@
     </row>
     <row r="90" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A90" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B90" s="2">
         <v>161.69999999999999</v>
@@ -6055,7 +6056,7 @@
     </row>
     <row r="91" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A91" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B91" s="2">
         <v>5110.5</v>
@@ -6111,7 +6112,7 @@
     </row>
     <row r="92" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A92" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B92" s="2">
         <v>695.9</v>
@@ -6169,7 +6170,7 @@
     </row>
     <row r="93" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A93" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B93" s="2">
         <v>241.7</v>
@@ -6227,7 +6228,7 @@
     </row>
     <row r="94" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A94" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B94" s="2">
         <v>543.1</v>
@@ -6285,7 +6286,7 @@
     </row>
     <row r="95" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A95" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B95" s="2">
         <v>430.8</v>
@@ -6343,7 +6344,7 @@
     </row>
     <row r="96" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A96" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B96" s="2">
         <v>623.9</v>
@@ -6401,7 +6402,7 @@
     </row>
     <row r="97" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A97" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B97" s="2">
         <v>889.3</v>
@@ -6459,7 +6460,7 @@
     </row>
     <row r="98" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A98" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B98" s="2">
         <v>345.5</v>
@@ -6517,7 +6518,7 @@
     </row>
     <row r="99" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A99" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B99" s="2">
         <v>418</v>
@@ -6575,7 +6576,7 @@
     </row>
     <row r="100" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A100" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B100" s="2">
         <v>922.3</v>
@@ -6633,7 +6634,7 @@
     </row>
     <row r="101" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A101" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B101" s="2">
         <v>1386.7</v>
@@ -6645,7 +6646,7 @@
         <v>2758.9</v>
       </c>
       <c r="E101" s="4">
-        <f t="shared" ref="E68:E110" si="18">B101+C101-D101</f>
+        <f t="shared" ref="E101:E110" si="18">B101+C101-D101</f>
         <v>0</v>
       </c>
       <c r="F101" s="2"/>
@@ -6691,7 +6692,7 @@
     </row>
     <row r="102" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A102" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B102" s="2">
         <v>221.7</v>
@@ -6749,7 +6750,7 @@
     </row>
     <row r="103" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A103" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B103" s="2">
         <v>246.6</v>
@@ -6807,7 +6808,7 @@
     </row>
     <row r="104" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A104" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B104" s="2">
         <v>243.9</v>
@@ -6865,7 +6866,7 @@
     </row>
     <row r="105" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A105" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B105" s="2">
         <v>162.4</v>
@@ -6923,7 +6924,7 @@
     </row>
     <row r="106" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A106" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B106" s="2">
         <v>108</v>
@@ -6981,7 +6982,7 @@
     </row>
     <row r="107" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A107" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B107" s="2">
         <v>97.2</v>
@@ -7039,7 +7040,7 @@
     </row>
     <row r="108" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A108" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B108" s="2">
         <v>148.9</v>
@@ -7097,7 +7098,7 @@
     </row>
     <row r="109" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A109" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B109" s="2">
         <v>158</v>
@@ -7155,7 +7156,7 @@
     </row>
     <row r="110" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A110" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B110" s="2">
         <v>76948.5</v>
